--- a/doctor_project/data.xlsx
+++ b/doctor_project/data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AH149"/>
+  <dimension ref="A1:AI149"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="AA1" view="normal" windowProtection="1" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" xSplit="0" ySplit="1"/>
@@ -636,6 +636,11 @@
           <t>得分_肌钙蛋白</t>
         </is>
       </c>
+      <c r="AI1" s="8" t="inlineStr">
+        <is>
+          <t>得分_病史</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="2" s="7">
       <c r="A2" s="6" t="inlineStr">
@@ -735,7 +740,7 @@
         </is>
       </c>
       <c r="AE2" s="6" t="n">
-        <v>4.020483507924929</v>
+        <v>3.757718639697402</v>
       </c>
       <c r="AF2" s="6" t="n">
         <v>1.19857895153627</v>
@@ -744,7 +749,10 @@
         <v>2.559139688161132</v>
       </c>
       <c r="AH2" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="3" s="7">
@@ -841,7 +849,7 @@
         </is>
       </c>
       <c r="AE3" s="6" t="n">
-        <v>2.942826575474995</v>
+        <v>2.680061707247468</v>
       </c>
       <c r="AF3" s="6" t="n">
         <v>1.464285318340198</v>
@@ -850,7 +858,10 @@
         <v>1.215776388907271</v>
       </c>
       <c r="AH3" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="4" s="7">
@@ -958,6 +969,9 @@
       <c r="AH4" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI4" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="5" s="7">
       <c r="A5" s="6" t="inlineStr">
@@ -1064,6 +1078,9 @@
       <c r="AH5" s="6" t="n">
         <v>3.497738475850702</v>
       </c>
+      <c r="AI5" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="6" s="7">
       <c r="A6" s="6" t="inlineStr">
@@ -1157,7 +1174,7 @@
         </is>
       </c>
       <c r="AE6" s="6" t="n">
-        <v>5.19455198701495</v>
+        <v>4.931787118787423</v>
       </c>
       <c r="AF6" s="6" t="n">
         <v>0.335033259423505</v>
@@ -1166,7 +1183,10 @@
         <v>4.596753859363918</v>
       </c>
       <c r="AH6" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="7" s="7">
@@ -1274,6 +1294,9 @@
       <c r="AH7" s="6" t="n">
         <v>3.497738475850702</v>
       </c>
+      <c r="AI7" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="8" s="7">
       <c r="A8" s="6" t="inlineStr">
@@ -1380,6 +1403,9 @@
       <c r="AH8" s="6" t="n">
         <v>4.385048812671873</v>
       </c>
+      <c r="AI8" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="9" s="7">
       <c r="A9" s="6" t="inlineStr">
@@ -1475,7 +1501,7 @@
         </is>
       </c>
       <c r="AE9" s="6" t="n">
-        <v>12.0709403434328</v>
+        <v>17.5459403434328</v>
       </c>
       <c r="AF9" s="6" t="n">
         <v>2.261404418751981</v>
@@ -1485,6 +1511,9 @@
       </c>
       <c r="AH9" s="6" t="n">
         <v>4.385048812671873</v>
+      </c>
+      <c r="AI9" s="6" t="n">
+        <v>5.475</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="10" s="7">
@@ -1585,7 +1614,7 @@
         </is>
       </c>
       <c r="AE10" s="6" t="n">
-        <v>3.942604766017204</v>
+        <v>3.679839897789677</v>
       </c>
       <c r="AF10" s="6" t="n">
         <v>1.663565093443144</v>
@@ -1594,7 +1623,10 @@
         <v>2.016274804346534</v>
       </c>
       <c r="AH10" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="11" s="7">
@@ -1702,6 +1734,9 @@
       <c r="AH11" s="6" t="n">
         <v>4.04518841234334</v>
       </c>
+      <c r="AI11" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="12" s="7">
       <c r="A12" s="6" t="inlineStr">
@@ -1808,6 +1843,9 @@
       <c r="AH12" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI12" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="13" s="7">
       <c r="A13" s="6" t="inlineStr">
@@ -1914,6 +1952,9 @@
       <c r="AH13" s="6" t="n">
         <v>3.497738475850702</v>
       </c>
+      <c r="AI13" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="14" s="7">
       <c r="A14" s="6" t="inlineStr">
@@ -2020,6 +2061,9 @@
       <c r="AH14" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI14" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="15" s="7">
       <c r="A15" s="6" t="inlineStr">
@@ -2113,16 +2157,19 @@
         <v>1.31</v>
       </c>
       <c r="AE15" s="6" t="n">
-        <v>4.479140913515479</v>
+        <v>4.29775787718108</v>
       </c>
       <c r="AF15" s="6" t="n">
         <v>0.8000194013303785</v>
       </c>
       <c r="AG15" s="6" t="n">
-        <v>0.1813830363343993</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="6" t="n">
         <v>3.497738475850702</v>
+      </c>
+      <c r="AI15" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="16" s="7">
@@ -2217,16 +2264,19 @@
         <v>2.25</v>
       </c>
       <c r="AE16" s="6" t="n">
-        <v>3.475372710797109</v>
+        <v>2.936762769367574</v>
       </c>
       <c r="AF16" s="6" t="n">
         <v>0.4678864428254688</v>
       </c>
       <c r="AG16" s="6" t="n">
-        <v>0.5386099414295356</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="6" t="n">
         <v>2.468876326542105</v>
+      </c>
+      <c r="AI16" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="17" s="7">
@@ -2321,16 +2371,19 @@
         <v>2.23</v>
       </c>
       <c r="AE17" s="6" t="n">
-        <v>3.703531985709636</v>
+        <v>3.401748911274447</v>
       </c>
       <c r="AF17" s="6" t="n">
         <v>0.9328725847323422</v>
       </c>
       <c r="AG17" s="6" t="n">
-        <v>0.3017830744351895</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="6" t="n">
         <v>2.468876326542105</v>
+      </c>
+      <c r="AI17" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="18" s="7">
@@ -2436,6 +2489,9 @@
       <c r="AH18" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI18" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="19" s="7">
       <c r="A19" s="6" t="inlineStr">
@@ -2529,7 +2585,7 @@
         <v>3.1</v>
       </c>
       <c r="AE19" s="6" t="n">
-        <v>3.65649783329344</v>
+        <v>3.393732965065914</v>
       </c>
       <c r="AF19" s="6" t="n">
         <v>1.663565093443144</v>
@@ -2538,7 +2594,10 @@
         <v>1.73016787162277</v>
       </c>
       <c r="AH19" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="20" s="7">
@@ -2637,7 +2696,7 @@
         <v>2.28</v>
       </c>
       <c r="AE20" s="6" t="n">
-        <v>13.7174585379812</v>
+        <v>19.1924585379812</v>
       </c>
       <c r="AF20" s="6" t="n">
         <v>1.995698051948053</v>
@@ -2647,6 +2706,9 @@
       </c>
       <c r="AH20" s="6" t="n">
         <v>4.04518841234334</v>
+      </c>
+      <c r="AI20" s="6" t="n">
+        <v>5.475</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="21" s="7">
@@ -2756,6 +2818,9 @@
       <c r="AH21" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI21" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="22" s="7">
       <c r="A22" s="6" t="inlineStr">
@@ -2860,6 +2925,9 @@
       <c r="AH22" s="6" t="n">
         <v>5.366931675111029</v>
       </c>
+      <c r="AI22" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="23" s="7">
       <c r="A23" s="6" t="inlineStr">
@@ -2964,6 +3032,9 @@
       <c r="AH23" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI23" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="24" s="7">
       <c r="A24" s="6" t="inlineStr">
@@ -3061,7 +3132,7 @@
         <v>3.18</v>
       </c>
       <c r="AE24" s="6" t="n">
-        <v>4.108579058156383</v>
+        <v>3.845814189928856</v>
       </c>
       <c r="AF24" s="6" t="n">
         <v>1.19857895153627</v>
@@ -3070,7 +3141,10 @@
         <v>2.647235238392586</v>
       </c>
       <c r="AH24" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="25" s="7">
@@ -3165,7 +3239,7 @@
         <v>3.14</v>
       </c>
       <c r="AE25" s="6" t="n">
-        <v>2.548806755590475</v>
+        <v>2.286041887362948</v>
       </c>
       <c r="AF25" s="6" t="n">
         <v>1.464285318340198</v>
@@ -3174,7 +3248,10 @@
         <v>0.8217565690227505</v>
       </c>
       <c r="AH25" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="26" s="7">
@@ -3269,7 +3346,7 @@
         <v>3.18</v>
       </c>
       <c r="AE26" s="6" t="n">
-        <v>2.390354340178841</v>
+        <v>2.127589471951314</v>
       </c>
       <c r="AF26" s="6" t="n">
         <v>0.5343130345264506</v>
@@ -3278,7 +3355,10 @@
         <v>1.593276437424863</v>
       </c>
       <c r="AH26" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="27" s="7">
@@ -3373,16 +3453,19 @@
         <v>3.21</v>
       </c>
       <c r="AE27" s="6" t="n">
-        <v>1.290407092682797</v>
+        <v>0.8000194013303785</v>
       </c>
       <c r="AF27" s="6" t="n">
         <v>0.8000194013303785</v>
       </c>
       <c r="AG27" s="6" t="n">
-        <v>0.2276228231248913</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="28" s="7">
@@ -3492,6 +3575,9 @@
       <c r="AH28" s="6" t="n">
         <v>5.158139397110265</v>
       </c>
+      <c r="AI28" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="29" s="7">
       <c r="A29" s="6" t="inlineStr">
@@ -3585,7 +3671,7 @@
         <v>3.25</v>
       </c>
       <c r="AE29" s="6" t="n">
-        <v>3.553729278936576</v>
+        <v>3.290964410709049</v>
       </c>
       <c r="AF29" s="6" t="n">
         <v>0.8000194013303785</v>
@@ -3594,7 +3680,10 @@
         <v>2.490945009378671</v>
       </c>
       <c r="AH29" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="30" s="7">
@@ -3689,7 +3778,7 @@
         <v>3.25</v>
       </c>
       <c r="AE30" s="6" t="n">
-        <v>4.300952472476915</v>
+        <v>4.038187604249388</v>
       </c>
       <c r="AF30" s="6" t="n">
         <v>1.132152359835288</v>
@@ -3698,7 +3787,10 @@
         <v>2.9060352444141</v>
       </c>
       <c r="AH30" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI30" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="31" s="7">
@@ -3804,6 +3896,9 @@
       <c r="AH31" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI31" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="32" s="7">
       <c r="A32" s="6" t="inlineStr">
@@ -3897,7 +3992,7 @@
         <v>3.25</v>
       </c>
       <c r="AE32" s="6" t="n">
-        <v>3.702707120726465</v>
+        <v>8.914942252498939</v>
       </c>
       <c r="AF32" s="6" t="n">
         <v>1.19857895153627</v>
@@ -3906,7 +4001,10 @@
         <v>2.241363300962669</v>
       </c>
       <c r="AH32" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="6" t="n">
+        <v>5.475</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="33" s="7">
@@ -4012,6 +4110,9 @@
       <c r="AH33" s="6" t="n">
         <v>3.497738475850702</v>
       </c>
+      <c r="AI33" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="34" s="7">
       <c r="A34" s="6" t="inlineStr">
@@ -4116,6 +4217,9 @@
       <c r="AH34" s="6" t="n">
         <v>3.497738475850702</v>
       </c>
+      <c r="AI34" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="35" s="7">
       <c r="A35" s="6" t="inlineStr">
@@ -4213,7 +4317,7 @@
         <v>4.2</v>
       </c>
       <c r="AE35" s="6" t="n">
-        <v>1.787622718871772</v>
+        <v>1.524857850644246</v>
       </c>
       <c r="AF35" s="6" t="n">
         <v>0.8664459930313604</v>
@@ -4222,7 +4326,10 @@
         <v>0.6584118576128851</v>
       </c>
       <c r="AH35" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="36" s="7">
@@ -4317,7 +4424,7 @@
         <v>4.1</v>
       </c>
       <c r="AE36" s="6" t="n">
-        <v>3.597050346332202</v>
+        <v>3.334285478104675</v>
       </c>
       <c r="AF36" s="6" t="n">
         <v>1.331432134938234</v>
@@ -4326,7 +4433,10 @@
         <v>2.002853343166441</v>
       </c>
       <c r="AH36" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI36" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="37" s="7">
@@ -4432,6 +4542,9 @@
       <c r="AH37" s="6" t="n">
         <v>4.04518841234334</v>
       </c>
+      <c r="AI37" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="38" s="7">
       <c r="A38" s="6" t="inlineStr">
@@ -4536,6 +4649,9 @@
       <c r="AH38" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI38" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="39" s="7">
       <c r="A39" s="10" t="inlineStr">
@@ -4640,6 +4756,9 @@
       <c r="AH39" s="6" t="n">
         <v>4.04518841234334</v>
       </c>
+      <c r="AI39" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="40" s="7">
       <c r="A40" s="6" t="inlineStr">
@@ -4744,6 +4863,9 @@
       <c r="AH40" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI40" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="41" s="7">
       <c r="A41" s="6" t="inlineStr">
@@ -4837,7 +4959,7 @@
         <v>4.18</v>
       </c>
       <c r="AE41" s="6" t="n">
-        <v>4.469702275025769</v>
+        <v>4.206937406798242</v>
       </c>
       <c r="AF41" s="6" t="n">
         <v>1.065725768134306</v>
@@ -4846,7 +4968,10 @@
         <v>3.141211638663936</v>
       </c>
       <c r="AH41" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI41" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="42" s="7">
@@ -4941,7 +5066,7 @@
         <v>4.22</v>
       </c>
       <c r="AE42" s="6" t="n">
-        <v>1.42533686455944</v>
+        <v>1.162571996331913</v>
       </c>
       <c r="AF42" s="6" t="n">
         <v>0.4678864428254688</v>
@@ -4950,7 +5075,10 @@
         <v>0.6946855535064442</v>
       </c>
       <c r="AH42" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="43" s="7">
@@ -5045,7 +5173,7 @@
         <v>4.22</v>
       </c>
       <c r="AE43" s="6" t="n">
-        <v>4.850649650797053</v>
+        <v>4.587884782569526</v>
       </c>
       <c r="AF43" s="6" t="n">
         <v>1.86284486854609</v>
@@ -5054,7 +5182,10 @@
         <v>2.725039914023437</v>
       </c>
       <c r="AH43" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI43" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="44" s="7">
@@ -5149,7 +5280,7 @@
         <v>4.29</v>
       </c>
       <c r="AE44" s="6" t="n">
-        <v>4.360717418168573</v>
+        <v>4.097952549941047</v>
       </c>
       <c r="AF44" s="6" t="n">
         <v>1.86284486854609</v>
@@ -5158,7 +5289,10 @@
         <v>2.235107681394957</v>
       </c>
       <c r="AH44" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI44" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="45" s="7">
@@ -5264,6 +5398,9 @@
       <c r="AH45" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI45" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="46" s="7">
       <c r="A46" s="6" t="inlineStr">
@@ -5357,7 +5494,7 @@
         <v>4.29</v>
       </c>
       <c r="AE46" s="6" t="n">
-        <v>2.812399580314622</v>
+        <v>3.410280103281266</v>
       </c>
       <c r="AF46" s="6" t="n">
         <v>0</v>
@@ -5366,7 +5503,10 @@
         <v>3.410280103281266</v>
       </c>
       <c r="AH46" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI46" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="47" s="7">
@@ -5472,6 +5612,9 @@
       <c r="AH47" s="6" t="n">
         <v>3.497738475850702</v>
       </c>
+      <c r="AI47" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="48" s="7">
       <c r="A48" s="6" t="inlineStr">
@@ -5565,16 +5708,19 @@
         <v>5.9</v>
       </c>
       <c r="AE48" s="6" t="n">
-        <v>3.897056735407317</v>
+        <v>3.497738475850702</v>
       </c>
       <c r="AF48" s="6" t="n">
         <v>0</v>
       </c>
       <c r="AG48" s="6" t="n">
-        <v>0.462844550339002</v>
+        <v>0</v>
       </c>
       <c r="AH48" s="6" t="n">
         <v>3.497738475850702</v>
+      </c>
+      <c r="AI48" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="49" s="7">
@@ -5673,7 +5819,7 @@
         <v>5.9</v>
       </c>
       <c r="AE49" s="6" t="n">
-        <v>2.248863954486944</v>
+        <v>1.986099086259418</v>
       </c>
       <c r="AF49" s="6" t="n">
         <v>1.265005543237252</v>
@@ -5682,7 +5828,10 @@
         <v>0.721093543022166</v>
       </c>
       <c r="AH49" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI49" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="50" s="7">
@@ -5792,6 +5941,9 @@
       <c r="AH50" s="6" t="n">
         <v>5.668497216874873</v>
       </c>
+      <c r="AI50" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="51" s="7">
       <c r="A51" s="6" t="inlineStr">
@@ -5889,7 +6041,7 @@
         <v>5.13</v>
       </c>
       <c r="AE51" s="6" t="n">
-        <v>2.700994534005462</v>
+        <v>2.438229665777936</v>
       </c>
       <c r="AF51" s="6" t="n">
         <v>1.331432134938234</v>
@@ -5898,7 +6050,10 @@
         <v>1.106797530839702</v>
       </c>
       <c r="AH51" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI51" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="52" s="7">
@@ -5997,7 +6152,7 @@
         <v>5.2</v>
       </c>
       <c r="AE52" s="6" t="n">
-        <v>8.137303345748391</v>
+        <v>7.874538477520863</v>
       </c>
       <c r="AF52" s="6" t="n">
         <v>1.331432134938234</v>
@@ -6006,7 +6161,10 @@
         <v>6.54310634258263</v>
       </c>
       <c r="AH52" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI52" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="53" s="7">
@@ -6112,6 +6270,9 @@
       <c r="AH53" s="6" t="n">
         <v>5.213506216673424</v>
       </c>
+      <c r="AI53" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="54" s="7">
       <c r="A54" s="6" t="inlineStr">
@@ -6216,6 +6377,9 @@
       <c r="AH54" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI54" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="55" s="7">
       <c r="A55" s="6" t="inlineStr">
@@ -6309,16 +6473,19 @@
         <v>5.28</v>
       </c>
       <c r="AE55" s="6" t="n">
-        <v>1.733058328751035</v>
+        <v>1.19857895153627</v>
       </c>
       <c r="AF55" s="6" t="n">
         <v>1.19857895153627</v>
       </c>
       <c r="AG55" s="6" t="n">
-        <v>0.2717145089872376</v>
+        <v>0</v>
       </c>
       <c r="AH55" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI55" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="56" s="7">
@@ -6424,6 +6591,9 @@
       <c r="AH56" s="6" t="n">
         <v>4.616575951525639</v>
       </c>
+      <c r="AI56" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="57" s="7">
       <c r="A57" s="6" t="inlineStr">
@@ -6517,7 +6687,7 @@
         <v>5.13</v>
       </c>
       <c r="AE57" s="6" t="n">
-        <v>2.097899352659272</v>
+        <v>1.835134484431745</v>
       </c>
       <c r="AF57" s="6" t="n">
         <v>1.132152359835288</v>
@@ -6526,7 +6696,10 @@
         <v>0.7029821245964577</v>
       </c>
       <c r="AH57" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI57" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="58" s="7">
@@ -6621,7 +6794,7 @@
         <v>5.23</v>
       </c>
       <c r="AE58" s="6" t="n">
-        <v>3.406672235666059</v>
+        <v>3.805272983529757</v>
       </c>
       <c r="AF58" s="6" t="n">
         <v>0</v>
@@ -6630,7 +6803,10 @@
         <v>3.805272983529757</v>
       </c>
       <c r="AH58" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI58" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="59" s="7">
@@ -6725,7 +6901,7 @@
         <v>5.23</v>
       </c>
       <c r="AE59" s="6" t="n">
-        <v>3.211160202059299</v>
+        <v>2.948395333831773</v>
       </c>
       <c r="AF59" s="6" t="n">
         <v>1.19857895153627</v>
@@ -6734,7 +6910,10 @@
         <v>1.749816382295502</v>
       </c>
       <c r="AH59" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI59" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="60" s="7">
@@ -6833,7 +7012,7 @@
         <v>5.23</v>
       </c>
       <c r="AE60" s="6" t="n">
-        <v>4.177091717713061</v>
+        <v>3.914326849485535</v>
       </c>
       <c r="AF60" s="6" t="n">
         <v>1.597138501742161</v>
@@ -6842,7 +7021,10 @@
         <v>2.317188347743373</v>
       </c>
       <c r="AH60" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI60" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="61" s="7">
@@ -6941,7 +7123,7 @@
         <v>5.23</v>
       </c>
       <c r="AE61" s="6" t="n">
-        <v>2.357175919421711</v>
+        <v>2.094411051194184</v>
       </c>
       <c r="AF61" s="6" t="n">
         <v>0.8664459930313604</v>
@@ -6950,7 +7132,10 @@
         <v>1.227965058162823</v>
       </c>
       <c r="AH61" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI61" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="62" s="7">
@@ -7045,7 +7230,7 @@
         <v>5.27</v>
       </c>
       <c r="AE62" s="6" t="n">
-        <v>3.362681839150736</v>
+        <v>3.099916970923209</v>
       </c>
       <c r="AF62" s="6" t="n">
         <v>1.19857895153627</v>
@@ -7054,7 +7239,10 @@
         <v>1.901338019386939</v>
       </c>
       <c r="AH62" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI62" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="63" s="7">
@@ -7149,7 +7337,7 @@
         <v>5.27</v>
       </c>
       <c r="AE63" s="6" t="n">
-        <v>2.785835031296496</v>
+        <v>2.523070163068969</v>
       </c>
       <c r="AF63" s="6" t="n">
         <v>1.53071191004118</v>
@@ -7158,7 +7346,10 @@
         <v>0.992358253027789</v>
       </c>
       <c r="AH63" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI63" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="64" s="7">
@@ -7264,6 +7455,9 @@
       <c r="AH64" s="6" t="n">
         <v>3.497738475850702</v>
       </c>
+      <c r="AI64" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="65" s="7">
       <c r="A65" s="6" t="inlineStr">
@@ -7357,7 +7551,7 @@
         <v>5.3</v>
       </c>
       <c r="AE65" s="6" t="n">
-        <v>4.517145105627684</v>
+        <v>4.254380237400158</v>
       </c>
       <c r="AF65" s="6" t="n">
         <v>1.19857895153627</v>
@@ -7366,7 +7560,10 @@
         <v>3.055801285863887</v>
       </c>
       <c r="AH65" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI65" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="66" s="7">
@@ -7461,7 +7658,7 @@
         <v>0.2291666666666667</v>
       </c>
       <c r="AE66" s="6" t="n">
-        <v>6.610895093117723</v>
+        <v>11.8231302248902</v>
       </c>
       <c r="AF66" s="6" t="n">
         <v>2.194977827050999</v>
@@ -7470,7 +7667,10 @@
         <v>4.153152397839197</v>
       </c>
       <c r="AH66" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI66" s="6" t="n">
+        <v>5.475</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="67" s="7">
@@ -7582,6 +7782,9 @@
       <c r="AH67" s="6" t="n">
         <v>2.144065685114969</v>
       </c>
+      <c r="AI67" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="68" s="7">
       <c r="A68" s="6" t="inlineStr">
@@ -7679,16 +7882,19 @@
         <v>6.3</v>
       </c>
       <c r="AE68" s="6" t="n">
-        <v>1.084068652160861</v>
+        <v>0.4678864428254688</v>
       </c>
       <c r="AF68" s="6" t="n">
         <v>0.4678864428254688</v>
       </c>
       <c r="AG68" s="6" t="n">
-        <v>0.3534173411078653</v>
+        <v>0</v>
       </c>
       <c r="AH68" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI68" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="69" s="7">
@@ -7794,6 +8000,9 @@
       <c r="AH69" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI69" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="70" s="7">
       <c r="A70" s="6" t="inlineStr">
@@ -7887,7 +8096,7 @@
         <v>6.11</v>
       </c>
       <c r="AE70" s="6" t="n">
-        <v>2.435971592414039</v>
+        <v>2.173206724186513</v>
       </c>
       <c r="AF70" s="6" t="n">
         <v>0.2021800760215409</v>
@@ -7896,7 +8105,10 @@
         <v>1.971026648164972</v>
       </c>
       <c r="AH70" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI70" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="71" s="7">
@@ -7991,7 +8203,7 @@
         <v>6.6</v>
       </c>
       <c r="AE71" s="6" t="n">
-        <v>1.340618437563314</v>
+        <v>1.077853569335787</v>
       </c>
       <c r="AF71" s="6" t="n">
         <v>0.06932689261957714</v>
@@ -8000,7 +8212,10 @@
         <v>1.00852667671621</v>
       </c>
       <c r="AH71" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI71" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="72" s="7">
@@ -8095,7 +8310,7 @@
         <v>6.1</v>
       </c>
       <c r="AE72" s="6" t="n">
-        <v>9.144269931563464</v>
+        <v>8.881505063335938</v>
       </c>
       <c r="AF72" s="6" t="n">
         <v>2.062124643649035</v>
@@ -8104,7 +8319,10 @@
         <v>6.819380419686904</v>
       </c>
       <c r="AH72" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI72" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="73" s="7">
@@ -8210,6 +8428,9 @@
       <c r="AH73" s="6" t="n">
         <v>4.385048812671873</v>
       </c>
+      <c r="AI73" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="74" s="7">
       <c r="A74" s="6" t="inlineStr">
@@ -8303,7 +8524,7 @@
         <v>6.2</v>
       </c>
       <c r="AE74" s="6" t="n">
-        <v>3.903813834414496</v>
+        <v>3.64104896618697</v>
       </c>
       <c r="AF74" s="6" t="n">
         <v>1.464285318340198</v>
@@ -8312,7 +8533,10 @@
         <v>2.176763647846772</v>
       </c>
       <c r="AH74" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI74" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="75" s="7">
@@ -8418,6 +8642,9 @@
       <c r="AH75" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI75" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="76" s="7">
       <c r="A76" s="6" t="inlineStr">
@@ -8515,7 +8742,7 @@
         <v>0.2638888888888889</v>
       </c>
       <c r="AE76" s="6" t="n">
-        <v>5.839252783698605</v>
+        <v>5.576487915471078</v>
       </c>
       <c r="AF76" s="6" t="n">
         <v>1.995698051948053</v>
@@ -8524,7 +8751,10 @@
         <v>3.580789863523024</v>
       </c>
       <c r="AH76" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI76" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="77" s="7">
@@ -8630,6 +8860,9 @@
       <c r="AH77" s="6" t="n">
         <v>3.497738475850702</v>
       </c>
+      <c r="AI77" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="78" s="7">
       <c r="A78" s="6" t="inlineStr">
@@ -8734,6 +8967,9 @@
       <c r="AH78" s="6" t="n">
         <v>5.830605538158672</v>
       </c>
+      <c r="AI78" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="79" s="7">
       <c r="A79" s="6" t="inlineStr">
@@ -8831,7 +9067,7 @@
         <v>6.24</v>
       </c>
       <c r="AE79" s="6" t="n">
-        <v>7.991862329520083</v>
+        <v>7.729097461292556</v>
       </c>
       <c r="AF79" s="6" t="n">
         <v>1.929271460247071</v>
@@ -8840,7 +9076,10 @@
         <v>5.799826001045485</v>
       </c>
       <c r="AH79" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI79" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="80" s="7">
@@ -8935,7 +9174,7 @@
         <v>6.25</v>
       </c>
       <c r="AE80" s="6" t="n">
-        <v>1.194935607158173</v>
+        <v>0.9321707389306464</v>
       </c>
       <c r="AF80" s="6" t="n">
         <v>0.06932689261957714</v>
@@ -8944,7 +9183,10 @@
         <v>0.8628438463110693</v>
       </c>
       <c r="AH80" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI80" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="81" s="7">
@@ -9050,6 +9292,9 @@
       <c r="AH81" s="6" t="n">
         <v>4.04518841234334</v>
       </c>
+      <c r="AI81" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="82" s="7">
       <c r="A82" s="6" t="inlineStr">
@@ -9158,6 +9403,9 @@
       <c r="AH82" s="6" t="n">
         <v>4.04518841234334</v>
       </c>
+      <c r="AI82" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="83" s="7">
       <c r="A83" s="6" t="inlineStr">
@@ -9266,6 +9514,9 @@
       <c r="AH83" s="6" t="n">
         <v>4.04518841234334</v>
       </c>
+      <c r="AI83" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="84" s="7">
       <c r="A84" s="6" t="inlineStr">
@@ -9363,16 +9614,19 @@
         <v>6.27</v>
       </c>
       <c r="AE84" s="6" t="n">
-        <v>4.678893963908171</v>
+        <v>9.573478102078134</v>
       </c>
       <c r="AF84" s="6" t="n">
         <v>0.6007396262274325</v>
       </c>
       <c r="AG84" s="6" t="n">
-        <v>0.580415861830037</v>
+        <v>0</v>
       </c>
       <c r="AH84" s="6" t="n">
         <v>3.497738475850702</v>
+      </c>
+      <c r="AI84" s="6" t="n">
+        <v>5.475</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="85" s="7">
@@ -9471,7 +9725,7 @@
         <v>7.3</v>
       </c>
       <c r="AE85" s="6" t="n">
-        <v>8.892803402429303</v>
+        <v>14.3678034024293</v>
       </c>
       <c r="AF85" s="6" t="n">
         <v>1.19857895153627</v>
@@ -9481,6 +9735,9 @@
       </c>
       <c r="AH85" s="6" t="n">
         <v>2.468876326542105</v>
+      </c>
+      <c r="AI85" s="6" t="n">
+        <v>5.475</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="86" s="7">
@@ -9586,6 +9843,9 @@
       <c r="AH86" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI86" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="87" s="7">
       <c r="A87" s="6" t="inlineStr">
@@ -9679,7 +9939,7 @@
         <v>7.5</v>
       </c>
       <c r="AE87" s="6" t="n">
-        <v>4.071137389664441</v>
+        <v>3.808372521436915</v>
       </c>
       <c r="AF87" s="6" t="n">
         <v>2.194977827050999</v>
@@ -9688,7 +9948,10 @@
         <v>1.613394694385916</v>
       </c>
       <c r="AH87" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI87" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="88" s="7">
@@ -9783,16 +10046,19 @@
         <v>7.8</v>
       </c>
       <c r="AE88" s="6" t="n">
-        <v>-1.063310260891568</v>
+        <v>0</v>
       </c>
       <c r="AF88" s="6" t="n">
         <v>0</v>
       </c>
       <c r="AG88" s="6" t="n">
-        <v>0.1988361790848946</v>
+        <v>0</v>
       </c>
       <c r="AH88" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI88" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="89" s="7">
@@ -9891,7 +10157,7 @@
         <v>7.9</v>
       </c>
       <c r="AE89" s="6" t="n">
-        <v>2.95671843486901</v>
+        <v>2.693953566641483</v>
       </c>
       <c r="AF89" s="6" t="n">
         <v>1.53071191004118</v>
@@ -9900,7 +10166,10 @@
         <v>1.163241656600303</v>
       </c>
       <c r="AH89" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI89" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="90" s="7">
@@ -10010,6 +10279,9 @@
       <c r="AH90" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI90" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="91" s="7">
       <c r="A91" s="6" t="inlineStr">
@@ -10107,7 +10379,7 @@
         <v>7.11</v>
       </c>
       <c r="AE91" s="6" t="n">
-        <v>6.641001030637495</v>
+        <v>6.704527321419882</v>
       </c>
       <c r="AF91" s="6" t="n">
         <v>0</v>
@@ -10117,6 +10389,9 @@
       </c>
       <c r="AH91" s="6" t="n">
         <v>2.468876326542105</v>
+      </c>
+      <c r="AI91" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="92" s="7">
@@ -10226,6 +10501,9 @@
       <c r="AH92" s="6" t="n">
         <v>4.04518841234334</v>
       </c>
+      <c r="AI92" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="93" s="7">
       <c r="A93" s="6" t="inlineStr">
@@ -10330,6 +10608,9 @@
       <c r="AH93" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI93" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="94" s="7">
       <c r="A94" s="6" t="inlineStr">
@@ -10423,7 +10704,7 @@
         <v>7.15</v>
       </c>
       <c r="AE94" s="6" t="n">
-        <v>2.070267598641081</v>
+        <v>1.807502730413555</v>
       </c>
       <c r="AF94" s="6" t="n">
         <v>0.6007396262274325</v>
@@ -10432,7 +10713,10 @@
         <v>1.206763104186122</v>
       </c>
       <c r="AH94" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI94" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="95" s="7">
@@ -10542,6 +10826,9 @@
       <c r="AH95" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI95" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="96" s="7">
       <c r="A96" s="6" t="inlineStr">
@@ -10635,7 +10922,7 @@
         <v>7.22</v>
       </c>
       <c r="AE96" s="6" t="n">
-        <v>3.965020311830977</v>
+        <v>3.702255443603451</v>
       </c>
       <c r="AF96" s="6" t="n">
         <v>2.062124643649035</v>
@@ -10644,7 +10931,10 @@
         <v>1.640130799954416</v>
       </c>
       <c r="AH96" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI96" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="97" s="7">
@@ -10739,7 +11029,7 @@
         <v>7.22</v>
       </c>
       <c r="AE97" s="6" t="n">
-        <v>0.878961423898296</v>
+        <v>0.81257602985512</v>
       </c>
       <c r="AF97" s="6" t="n">
         <v>0</v>
@@ -10748,7 +11038,10 @@
         <v>0.81257602985512</v>
       </c>
       <c r="AH97" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI97" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="98" s="7">
@@ -10843,7 +11136,7 @@
         </is>
       </c>
       <c r="AE98" s="6" t="n">
-        <v>3.691920442819823</v>
+        <v>3.429155574592297</v>
       </c>
       <c r="AF98" s="6" t="n">
         <v>1.53071191004118</v>
@@ -10852,7 +11145,10 @@
         <v>1.898443664551117</v>
       </c>
       <c r="AH98" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI98" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="99" s="7">
@@ -10956,6 +11252,9 @@
       <c r="AH99" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI99" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="100" s="7">
       <c r="A100" s="6" t="inlineStr">
@@ -11066,6 +11365,9 @@
       <c r="AH100" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI100" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="101" s="7">
       <c r="A101" s="6" t="inlineStr">
@@ -11168,6 +11470,9 @@
       <c r="AH101" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI101" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="102" s="7">
       <c r="A102" s="6" t="inlineStr">
@@ -11257,7 +11562,7 @@
       <c r="Y102" s="6" t="n"/>
       <c r="Z102" s="6" t="n"/>
       <c r="AE102" s="6" t="n">
-        <v>4.601028884526544</v>
+        <v>4.338264016299018</v>
       </c>
       <c r="AF102" s="6" t="n">
         <v>1.796418276845107</v>
@@ -11266,7 +11571,10 @@
         <v>2.54184573945391</v>
       </c>
       <c r="AH102" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI102" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="103" s="7">
@@ -11359,7 +11667,7 @@
       </c>
       <c r="Z103" s="6" t="n"/>
       <c r="AE103" s="6" t="n">
-        <v>2.329907503393236</v>
+        <v>2.067142635165709</v>
       </c>
       <c r="AF103" s="6" t="n">
         <v>1.132152359835288</v>
@@ -11368,7 +11676,10 @@
         <v>0.9349902753304212</v>
       </c>
       <c r="AH103" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI103" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="104" s="7">
@@ -11476,6 +11787,9 @@
       <c r="AH104" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI104" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="105" s="7">
       <c r="A105" s="6" t="inlineStr">
@@ -11582,6 +11896,9 @@
       <c r="AH105" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI105" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="106" s="7">
       <c r="A106" s="6" t="inlineStr">
@@ -11677,7 +11994,7 @@
         </is>
       </c>
       <c r="AE106" s="6" t="n">
-        <v>9.232750001093029</v>
+        <v>8.969985132865503</v>
       </c>
       <c r="AF106" s="6" t="n">
         <v>1.19857895153627</v>
@@ -11686,7 +12003,10 @@
         <v>7.771406181329232</v>
       </c>
       <c r="AH106" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI106" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="107" s="7">
@@ -11783,7 +12103,7 @@
         </is>
       </c>
       <c r="AE107" s="6" t="n">
-        <v>4.229587014361754</v>
+        <v>3.966822146134227</v>
       </c>
       <c r="AF107" s="6" t="n">
         <v>1.796418276845107</v>
@@ -11792,7 +12112,10 @@
         <v>2.17040386928912</v>
       </c>
       <c r="AH107" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI107" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="108" s="7">
@@ -11893,7 +12216,7 @@
         </is>
       </c>
       <c r="AE108" s="6" t="n">
-        <v>3.934905937969151</v>
+        <v>3.672141069741624</v>
       </c>
       <c r="AF108" s="6" t="n">
         <v>1.729991685144125</v>
@@ -11902,7 +12225,10 @@
         <v>1.942149384597499</v>
       </c>
       <c r="AH108" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI108" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="109" s="7">
@@ -12003,7 +12329,7 @@
         </is>
       </c>
       <c r="AE109" s="6" t="n">
-        <v>2.230703330860778</v>
+        <v>1.967938462633251</v>
       </c>
       <c r="AF109" s="6" t="n">
         <v>0.7335928096293967</v>
@@ -12012,7 +12338,10 @@
         <v>1.234345653003854</v>
       </c>
       <c r="AH109" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI109" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="110" s="7">
@@ -12109,7 +12438,7 @@
         </is>
       </c>
       <c r="AE110" s="6" t="n">
-        <v>3.295113350774336</v>
+        <v>3.032348482546809</v>
       </c>
       <c r="AF110" s="6" t="n">
         <v>0.7335928096293967</v>
@@ -12118,7 +12447,10 @@
         <v>2.298755672917413</v>
       </c>
       <c r="AH110" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI110" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="111" s="7">
@@ -12215,7 +12547,7 @@
         </is>
       </c>
       <c r="AE111" s="6" t="n">
-        <v>7.442844233015023</v>
+        <v>7.180079364787497</v>
       </c>
       <c r="AF111" s="6" t="n">
         <v>1.929271460247071</v>
@@ -12224,7 +12556,10 @@
         <v>5.250807904540426</v>
       </c>
       <c r="AH111" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI111" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="112" s="7">
@@ -12332,6 +12667,9 @@
       <c r="AH112" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI112" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="113" s="7">
       <c r="A113" s="6" t="inlineStr">
@@ -12427,7 +12765,7 @@
         </is>
       </c>
       <c r="AE113" s="6" t="n">
-        <v>7.527066472868977</v>
+        <v>7.26430160464145</v>
       </c>
       <c r="AF113" s="6" t="n">
         <v>0.9328725847323422</v>
@@ -12436,7 +12774,10 @@
         <v>6.331429019909108</v>
       </c>
       <c r="AH113" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI113" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="114" s="7">
@@ -12546,6 +12887,9 @@
       <c r="AH114" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI114" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="115" s="7">
       <c r="A115" s="6" t="inlineStr">
@@ -12652,6 +12996,9 @@
       <c r="AH115" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI115" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="116" s="7">
       <c r="A116" s="6" t="inlineStr">
@@ -12747,7 +13094,7 @@
         </is>
       </c>
       <c r="AE116" s="6" t="n">
-        <v>5.66485957142481</v>
+        <v>5.402094703197283</v>
       </c>
       <c r="AF116" s="6" t="n">
         <v>0.8000194013303785</v>
@@ -12756,7 +13103,10 @@
         <v>4.602075301866905</v>
       </c>
       <c r="AH116" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI116" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="117" s="7">
@@ -12853,7 +13203,7 @@
         </is>
       </c>
       <c r="AE117" s="6" t="n">
-        <v>14.53641534676684</v>
+        <v>20.01141534676684</v>
       </c>
       <c r="AF117" s="6" t="n">
         <v>1.995698051948053</v>
@@ -12863,6 +13213,9 @@
       </c>
       <c r="AH117" s="6" t="n">
         <v>3.497738475850702</v>
+      </c>
+      <c r="AI117" s="6" t="n">
+        <v>5.475</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="118" s="7">
@@ -12970,6 +13323,9 @@
       <c r="AH118" s="6" t="n">
         <v>2.468876326542105</v>
       </c>
+      <c r="AI118" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="119" s="7">
       <c r="A119" s="6" t="inlineStr">
@@ -13074,6 +13430,9 @@
       <c r="AH119" s="6" t="n">
         <v>2.741178529052865</v>
       </c>
+      <c r="AI119" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="120" s="7">
       <c r="A120" s="6" t="inlineStr">
@@ -13167,7 +13526,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AE120" s="6" t="n">
-        <v>2.344917385075148</v>
+        <v>2.082152516847621</v>
       </c>
       <c r="AF120" s="6" t="n">
         <v>1.19857895153627</v>
@@ -13176,7 +13535,10 @@
         <v>0.883573565311351</v>
       </c>
       <c r="AH120" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI120" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="121" s="7">
@@ -13271,16 +13633,19 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AE121" s="6" t="n">
-        <v>-0.2104784532777291</v>
+        <v>0</v>
       </c>
       <c r="AF121" s="6" t="n">
         <v>0</v>
       </c>
       <c r="AG121" s="6" t="n">
-        <v>0.1881222945859684</v>
+        <v>0</v>
       </c>
       <c r="AH121" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI121" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="122" s="7">
@@ -13375,7 +13740,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AE122" s="6" t="n">
-        <v>2.451251249660702</v>
+        <v>7.663486381433175</v>
       </c>
       <c r="AF122" s="6" t="n">
         <v>0.9328725847323422</v>
@@ -13384,7 +13749,10 @@
         <v>1.255613796700833</v>
       </c>
       <c r="AH122" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI122" s="6" t="n">
+        <v>5.475</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="123" s="7">
@@ -13479,7 +13847,7 @@
         <v>8.9</v>
       </c>
       <c r="AE123" s="6" t="n">
-        <v>1.97079390134792</v>
+        <v>1.708029033120393</v>
       </c>
       <c r="AF123" s="6" t="n">
         <v>0.335033259423505</v>
@@ -13488,7 +13856,10 @@
         <v>1.372995773696888</v>
       </c>
       <c r="AH123" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI123" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="124" s="7">
@@ -13583,7 +13954,7 @@
         <v>8.9</v>
       </c>
       <c r="AE124" s="6" t="n">
-        <v>11.7985077947731</v>
+        <v>17.2735077947731</v>
       </c>
       <c r="AF124" s="6" t="n">
         <v>1.597138501742161</v>
@@ -13593,6 +13964,9 @@
       </c>
       <c r="AH124" s="6" t="n">
         <v>2.468876326542105</v>
+      </c>
+      <c r="AI124" s="6" t="n">
+        <v>5.475</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="125" s="7">
@@ -13687,7 +14061,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AE125" s="6" t="n">
-        <v>6.241702135921518</v>
+        <v>5.978937267693992</v>
       </c>
       <c r="AF125" s="6" t="n">
         <v>1.53071191004118</v>
@@ -13696,7 +14070,10 @@
         <v>4.448225357652811</v>
       </c>
       <c r="AH125" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI125" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="126" s="7">
@@ -13791,16 +14168,19 @@
         <v>8.279999999999999</v>
       </c>
       <c r="AE126" s="6" t="n">
-        <v>2.185991491873356</v>
+        <v>1.397858726639216</v>
       </c>
       <c r="AF126" s="6" t="n">
         <v>1.397858726639216</v>
       </c>
       <c r="AG126" s="6" t="n">
-        <v>0.5253678970066131</v>
+        <v>0</v>
       </c>
       <c r="AH126" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI126" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="127" s="7">
@@ -13906,6 +14286,9 @@
       <c r="AH127" s="6" t="n">
         <v>4.327792915743302</v>
       </c>
+      <c r="AI127" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="128" s="7">
       <c r="A128" s="6" t="inlineStr">
@@ -13999,16 +14382,19 @@
         <v>9.109999999999999</v>
       </c>
       <c r="AE128" s="6" t="n">
-        <v>1.109077595789563</v>
+        <v>0.7335928096293967</v>
       </c>
       <c r="AF128" s="6" t="n">
         <v>0.7335928096293967</v>
       </c>
       <c r="AG128" s="6" t="n">
-        <v>0.1127199179326398</v>
+        <v>0</v>
       </c>
       <c r="AH128" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI128" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="129" s="7">
@@ -14103,7 +14489,7 @@
         <v>9.17</v>
       </c>
       <c r="AE129" s="6" t="n">
-        <v>6.085518377204097</v>
+        <v>11.29775350897657</v>
       </c>
       <c r="AF129" s="6" t="n">
         <v>1.464285318340198</v>
@@ -14112,7 +14498,10 @@
         <v>4.358468190636373</v>
       </c>
       <c r="AH129" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI129" s="6" t="n">
+        <v>5.475</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="130" s="7">
@@ -14207,7 +14596,7 @@
         <v>9.119999999999999</v>
       </c>
       <c r="AE130" s="6" t="n">
-        <v>10.89865342391098</v>
+        <v>16.37365342391097</v>
       </c>
       <c r="AF130" s="6" t="n">
         <v>1.995698051948053</v>
@@ -14217,6 +14606,9 @@
       </c>
       <c r="AH130" s="6" t="n">
         <v>0.9709893674288312</v>
+      </c>
+      <c r="AI130" s="6" t="n">
+        <v>5.475</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="131" s="7">
@@ -14311,16 +14703,19 @@
         <v>9.18</v>
       </c>
       <c r="AE131" s="6" t="n">
-        <v>0.2455319036767981</v>
+        <v>0</v>
       </c>
       <c r="AF131" s="6" t="n">
         <v>0</v>
       </c>
       <c r="AG131" s="6" t="n">
-        <v>0.1127199179326398</v>
+        <v>0</v>
       </c>
       <c r="AH131" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI131" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="132" s="7">
@@ -14415,16 +14810,19 @@
         <v>9.210000000000001</v>
       </c>
       <c r="AE132" s="6" t="n">
-        <v>1.241930779191527</v>
+        <v>0.8664459930313604</v>
       </c>
       <c r="AF132" s="6" t="n">
         <v>0.8664459930313604</v>
       </c>
       <c r="AG132" s="6" t="n">
-        <v>0.1127199179326398</v>
+        <v>0</v>
       </c>
       <c r="AH132" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI132" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="133" s="7">
@@ -14519,7 +14917,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="AE133" s="6" t="n">
-        <v>1.334177523869169</v>
+        <v>1.334218721526975</v>
       </c>
       <c r="AF133" s="6" t="n">
         <v>0</v>
@@ -14528,7 +14926,10 @@
         <v>1.334218721526975</v>
       </c>
       <c r="AH133" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI133" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="134" s="7">
@@ -14627,7 +15028,7 @@
         <v>9.25</v>
       </c>
       <c r="AE134" s="6" t="n">
-        <v>7.006880663807154</v>
+        <v>6.744115795579627</v>
       </c>
       <c r="AF134" s="6" t="n">
         <v>0.6007396262274325</v>
@@ -14636,7 +15037,10 @@
         <v>6.143376169352194</v>
       </c>
       <c r="AH134" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI134" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="135" s="7">
@@ -14731,16 +15135,19 @@
         <v>9.210000000000001</v>
       </c>
       <c r="AE135" s="6" t="n">
-        <v>1.228470127248293</v>
+        <v>0.5343130345264506</v>
       </c>
       <c r="AF135" s="6" t="n">
         <v>0.5343130345264506</v>
       </c>
       <c r="AG135" s="6" t="n">
-        <v>0.4313922244943157</v>
+        <v>0</v>
       </c>
       <c r="AH135" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI135" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="136" s="7">
@@ -14835,7 +15242,7 @@
         <v>9.27</v>
       </c>
       <c r="AE136" s="6" t="n">
-        <v>4.123177430440592</v>
+        <v>3.860412562213065</v>
       </c>
       <c r="AF136" s="6" t="n">
         <v>1.729991685144125</v>
@@ -14844,7 +15251,10 @@
         <v>2.13042087706894</v>
       </c>
       <c r="AH136" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI136" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="137" s="7">
@@ -14939,7 +15349,7 @@
         <v>10.11</v>
       </c>
       <c r="AE137" s="6" t="n">
-        <v>12.41036102867263</v>
+        <v>12.47388731945501</v>
       </c>
       <c r="AF137" s="6" t="n">
         <v>0</v>
@@ -14949,6 +15359,9 @@
       </c>
       <c r="AH137" s="6" t="n">
         <v>4.04518841234334</v>
+      </c>
+      <c r="AI137" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="138" s="7">
@@ -15043,7 +15456,7 @@
         <v>10.11</v>
       </c>
       <c r="AE138" s="6" t="n">
-        <v>4.685900953159552</v>
+        <v>4.423136084932025</v>
       </c>
       <c r="AF138" s="6" t="n">
         <v>1.19857895153627</v>
@@ -15052,7 +15465,10 @@
         <v>3.224557133395756</v>
       </c>
       <c r="AH138" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI138" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="139" s="7">
@@ -15151,7 +15567,7 @@
         <v>10.14</v>
       </c>
       <c r="AE139" s="6" t="n">
-        <v>11.4420355123735</v>
+        <v>16.9170355123735</v>
       </c>
       <c r="AF139" s="6" t="n">
         <v>1.86284486854609</v>
@@ -15161,6 +15577,9 @@
       </c>
       <c r="AH139" s="6" t="n">
         <v>1.74993807748811</v>
+      </c>
+      <c r="AI139" s="6" t="n">
+        <v>5.475</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="140" s="7">
@@ -15270,6 +15689,9 @@
       <c r="AH140" s="6" t="n">
         <v>3.694137202993276</v>
       </c>
+      <c r="AI140" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="141" s="7">
       <c r="A141" s="6" t="inlineStr">
@@ -15367,16 +15789,19 @@
         <v>10.16</v>
       </c>
       <c r="AE141" s="6" t="n">
-        <v>0.5165164911094118</v>
+        <v>0</v>
       </c>
       <c r="AF141" s="6" t="n">
         <v>0</v>
       </c>
       <c r="AG141" s="6" t="n">
-        <v>0.3837045053652535</v>
+        <v>0</v>
       </c>
       <c r="AH141" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI141" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="142" s="7">
@@ -15486,6 +15911,9 @@
       <c r="AH142" s="6" t="n">
         <v>3.424022829076383</v>
       </c>
+      <c r="AI142" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="143" s="7">
       <c r="A143" s="6" t="inlineStr">
@@ -15590,6 +16018,9 @@
       <c r="AH143" s="6" t="n">
         <v>0.6408953120306663</v>
       </c>
+      <c r="AI143" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="144" s="7">
       <c r="A144" s="6" t="inlineStr">
@@ -15683,7 +16114,7 @@
         <v>10.24</v>
       </c>
       <c r="AE144" s="6" t="n">
-        <v>2.8159614446826</v>
+        <v>2.553196576455073</v>
       </c>
       <c r="AF144" s="6" t="n">
         <v>1.397858726639216</v>
@@ -15692,7 +16123,10 @@
         <v>1.155337849815857</v>
       </c>
       <c r="AH144" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI144" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="145" s="7">
@@ -15791,7 +16225,7 @@
         <v>10.3</v>
       </c>
       <c r="AE145" s="6" t="n">
-        <v>9.050490544488872</v>
+        <v>8.787725676261344</v>
       </c>
       <c r="AF145" s="6" t="n">
         <v>0.9992991764333241</v>
@@ -15800,7 +16234,10 @@
         <v>7.78842649982802</v>
       </c>
       <c r="AH145" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI145" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="146" s="7">
@@ -15910,6 +16347,9 @@
       <c r="AH146" s="6" t="n">
         <v>0.6408953120306663</v>
       </c>
+      <c r="AI146" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.8" r="147" s="7">
       <c r="A147" s="6" t="inlineStr">
@@ -16003,7 +16443,7 @@
         <v>11.6</v>
       </c>
       <c r="AE147" s="6" t="n">
-        <v>2.111777629528777</v>
+        <v>1.84901276130125</v>
       </c>
       <c r="AF147" s="6" t="n">
         <v>0.5343130345264506</v>
@@ -16012,7 +16452,10 @@
         <v>1.3146997267748</v>
       </c>
       <c r="AH147" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI147" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="148" s="7">
@@ -16111,7 +16554,7 @@
         <v>11.08</v>
       </c>
       <c r="AE148" s="6" t="n">
-        <v>6.951200795652964</v>
+        <v>6.688435927425438</v>
       </c>
       <c r="AF148" s="6" t="n">
         <v>1.929271460247071</v>
@@ -16120,7 +16563,10 @@
         <v>4.759164467178366</v>
       </c>
       <c r="AH148" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI148" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="149" s="7">
@@ -16214,7 +16660,7 @@
         <v>11.09</v>
       </c>
       <c r="AE149" s="6" t="n">
-        <v>3.536056447066887</v>
+        <v>3.273291578839361</v>
       </c>
       <c r="AF149" s="6" t="n">
         <v>1.729991685144125</v>
@@ -16223,7 +16669,10 @@
         <v>1.543299893695236</v>
       </c>
       <c r="AH149" s="6" t="n">
-        <v>0.2627648682275268</v>
+        <v>0</v>
+      </c>
+      <c r="AI149" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/doctor_project/data.xlsx
+++ b/doctor_project/data.xlsx
@@ -431,38 +431,38 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AI149"/>
+  <dimension ref="A1:AI150"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="AA1" view="normal" windowProtection="1" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" xSplit="0" ySplit="1"/>
-      <selection activeCell="AA1" activeCellId="0" pane="topLeft" sqref="AA1"/>
-      <selection activeCell="AE1" activeCellId="0" pane="bottomLeft" sqref="AE1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="1" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A107" xSplit="0" ySplit="1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="G150" activeCellId="0" pane="bottomLeft" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="9.106976744186049"/>
-    <col customWidth="1" max="2" min="2" style="6" width="9.96744186046512"/>
+    <col customWidth="1" max="1" min="1" style="6" width="9.35348837209302"/>
+    <col customWidth="1" max="2" min="2" style="6" width="10.2139534883721"/>
     <col customWidth="1" max="3" min="3" style="6" width="5.16744186046512"/>
     <col customWidth="1" max="4" min="4" style="6" width="5.29302325581395"/>
-    <col customWidth="1" max="5" min="5" style="6" width="9.106976744186049"/>
-    <col customWidth="1" max="6" min="6" style="6" width="8.49302325581395"/>
-    <col customWidth="1" max="7" min="7" style="6" width="5.78604651162791"/>
-    <col customWidth="1" max="10" min="8" style="6" width="9.106976744186049"/>
-    <col customWidth="1" max="11" min="11" style="6" width="17.4744186046512"/>
-    <col customWidth="1" max="12" min="12" style="6" width="7.13953488372093"/>
-    <col customWidth="1" max="13" min="13" style="6" width="7.50697674418605"/>
-    <col customWidth="1" max="14" min="14" style="6" width="6.02790697674419"/>
-    <col customWidth="1" max="16" min="15" style="6" width="9.106976744186049"/>
-    <col customWidth="1" max="17" min="17" style="6" width="7.38604651162791"/>
-    <col customWidth="1" max="18" min="18" style="6" width="6.15348837209302"/>
-    <col customWidth="1" max="21" min="19" style="6" width="9.106976744186049"/>
-    <col customWidth="1" max="22" min="22" style="6" width="7.75348837209302"/>
-    <col customWidth="1" max="23" min="23" style="6" width="5.78604651162791"/>
-    <col customWidth="1" max="24" min="24" style="6" width="17.8418604651163"/>
-    <col customWidth="1" max="25" min="25" style="6" width="13.906976744186"/>
-    <col customWidth="1" max="26" min="26" style="6" width="10.4604651162791"/>
-    <col customWidth="1" max="1025" min="27" style="6" width="9.106976744186049"/>
+    <col customWidth="1" max="5" min="5" style="6" width="9.35348837209302"/>
+    <col customWidth="1" max="6" min="6" style="6" width="8.73953488372093"/>
+    <col customWidth="1" max="7" min="7" style="6" width="5.90697674418605"/>
+    <col customWidth="1" max="10" min="8" style="6" width="9.35348837209302"/>
+    <col customWidth="1" max="11" min="11" style="6" width="17.9674418604651"/>
+    <col customWidth="1" max="12" min="12" style="6" width="7.26046511627907"/>
+    <col customWidth="1" max="13" min="13" style="6" width="7.62790697674419"/>
+    <col customWidth="1" max="14" min="14" style="6" width="6.15348837209302"/>
+    <col customWidth="1" max="16" min="15" style="6" width="9.35348837209302"/>
+    <col customWidth="1" max="17" min="17" style="6" width="7.50697674418605"/>
+    <col customWidth="1" max="18" min="18" style="6" width="6.27441860465116"/>
+    <col customWidth="1" max="21" min="19" style="6" width="9.35348837209302"/>
+    <col customWidth="1" max="22" min="22" style="6" width="7.87441860465116"/>
+    <col customWidth="1" max="23" min="23" style="6" width="5.90697674418605"/>
+    <col customWidth="1" max="24" min="24" style="6" width="18.3348837209302"/>
+    <col customWidth="1" max="25" min="25" style="6" width="14.2744186046512"/>
+    <col customWidth="1" max="26" min="26" style="6" width="10.706976744186"/>
+    <col customWidth="1" max="1025" min="27" style="6" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="13.8" r="1" s="7">
@@ -792,7 +792,6 @@
       <c r="J3" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="K3" s="6" t="n"/>
       <c r="L3" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -901,7 +900,6 @@
       <c r="J4" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="K4" s="6" t="n"/>
       <c r="L4" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -1010,7 +1008,6 @@
       <c r="J5" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="K5" s="6" t="n"/>
       <c r="L5" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -1119,7 +1116,6 @@
       <c r="J6" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="K6" s="6" t="n"/>
       <c r="L6" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -1167,7 +1163,6 @@
           <t>拜瑞妥 可达龙13860241330</t>
         </is>
       </c>
-      <c r="Y6" s="6" t="n"/>
       <c r="Z6" s="9" t="inlineStr">
         <is>
           <t>9.1.14</t>
@@ -1226,7 +1221,6 @@
       <c r="J7" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="K7" s="6" t="n"/>
       <c r="L7" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -1335,7 +1329,6 @@
       <c r="J8" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="K8" s="6" t="n"/>
       <c r="L8" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -1444,7 +1437,6 @@
       <c r="J9" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="K9" s="6" t="n"/>
       <c r="L9" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -1666,7 +1658,6 @@
       <c r="J11" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="K11" s="6" t="n"/>
       <c r="L11" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -1775,7 +1766,6 @@
       <c r="J12" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="K12" s="6" t="n"/>
       <c r="L12" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -1884,7 +1874,6 @@
       <c r="J13" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="K13" s="6" t="n"/>
       <c r="L13" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -1993,7 +1982,6 @@
       <c r="J14" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="K14" s="6" t="n"/>
       <c r="L14" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -2102,7 +2090,6 @@
       <c r="J15" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="K15" s="6" t="n"/>
       <c r="L15" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -2209,7 +2196,6 @@
       <c r="J16" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="K16" s="6" t="n"/>
       <c r="L16" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -2316,7 +2302,6 @@
       <c r="J17" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="K17" s="6" t="n"/>
       <c r="L17" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -2423,7 +2408,6 @@
       <c r="J18" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="K18" s="6" t="n"/>
       <c r="L18" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -2530,7 +2514,6 @@
       <c r="J19" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="K19" s="6" t="n"/>
       <c r="L19" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -2859,7 +2842,6 @@
       <c r="J22" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="K22" s="6" t="n"/>
       <c r="L22" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -2966,7 +2948,6 @@
       <c r="J23" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="K23" s="6" t="n"/>
       <c r="L23" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -3184,7 +3165,6 @@
       <c r="J25" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="K25" s="6" t="n"/>
       <c r="L25" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -3291,7 +3271,6 @@
       <c r="J26" s="6" t="n">
         <v>71</v>
       </c>
-      <c r="K26" s="6" t="n"/>
       <c r="L26" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -3398,7 +3377,6 @@
       <c r="J27" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="K27" s="6" t="n"/>
       <c r="L27" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -3616,7 +3594,6 @@
       <c r="J29" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="K29" s="6" t="n"/>
       <c r="L29" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -3723,7 +3700,6 @@
       <c r="J30" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="K30" s="6" t="n"/>
       <c r="L30" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -3830,7 +3806,6 @@
       <c r="J31" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="K31" s="6" t="n"/>
       <c r="L31" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -3937,7 +3912,6 @@
       <c r="J32" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="K32" s="6" t="n"/>
       <c r="L32" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -4044,7 +4018,6 @@
       <c r="J33" s="6" t="n">
         <v>76</v>
       </c>
-      <c r="K33" s="6" t="n"/>
       <c r="L33" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -4151,7 +4124,6 @@
       <c r="J34" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="K34" s="6" t="n"/>
       <c r="L34" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -4369,7 +4341,6 @@
       <c r="J36" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="K36" s="6" t="n"/>
       <c r="L36" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -4476,7 +4447,6 @@
       <c r="J37" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="K37" s="6" t="n"/>
       <c r="L37" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -4583,7 +4553,6 @@
       <c r="J38" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="K38" s="6" t="n"/>
       <c r="L38" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">有 </t>
@@ -4690,7 +4659,6 @@
       <c r="J39" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="K39" s="6" t="n"/>
       <c r="L39" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -4797,7 +4765,6 @@
       <c r="J40" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="K40" s="6" t="n"/>
       <c r="L40" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -4904,7 +4871,6 @@
       <c r="J41" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="K41" s="6" t="n"/>
       <c r="L41" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -5011,7 +4977,6 @@
       <c r="J42" s="6" t="n">
         <v>69</v>
       </c>
-      <c r="K42" s="6" t="n"/>
       <c r="L42" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -5118,7 +5083,6 @@
       <c r="J43" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="K43" s="6" t="n"/>
       <c r="L43" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -5225,7 +5189,6 @@
       <c r="J44" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="K44" s="6" t="n"/>
       <c r="L44" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -5332,7 +5295,6 @@
       <c r="J45" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="K45" s="6" t="n"/>
       <c r="L45" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -5439,7 +5401,6 @@
       <c r="J46" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="K46" s="6" t="n"/>
       <c r="L46" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -5546,7 +5507,6 @@
       <c r="J47" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="K47" s="6" t="n"/>
       <c r="L47" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -5653,7 +5613,6 @@
       <c r="J48" s="6" t="n">
         <v>71</v>
       </c>
-      <c r="K48" s="6" t="n"/>
       <c r="L48" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -6204,7 +6163,6 @@
       <c r="J53" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="K53" s="6" t="n"/>
       <c r="L53" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -6311,7 +6269,6 @@
       <c r="J54" s="6" t="n">
         <v>71</v>
       </c>
-      <c r="K54" s="6" t="n"/>
       <c r="L54" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -6418,7 +6375,6 @@
       <c r="J55" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="K55" s="6" t="n"/>
       <c r="L55" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -6525,7 +6481,6 @@
       <c r="J56" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="K56" s="6" t="n"/>
       <c r="L56" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -6632,7 +6587,6 @@
       <c r="J57" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="K57" s="6" t="n"/>
       <c r="L57" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -6739,7 +6693,6 @@
       <c r="J58" s="6" t="n">
         <v>67</v>
       </c>
-      <c r="K58" s="6" t="n"/>
       <c r="L58" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -6846,7 +6799,6 @@
       <c r="J59" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="K59" s="6" t="n"/>
       <c r="L59" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -7175,7 +7127,6 @@
       <c r="J62" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="K62" s="6" t="n"/>
       <c r="L62" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -7282,7 +7233,6 @@
       <c r="J63" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="K63" s="6" t="n"/>
       <c r="L63" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -7389,7 +7339,6 @@
       <c r="J64" s="6" t="n">
         <v>69</v>
       </c>
-      <c r="K64" s="6" t="n"/>
       <c r="L64" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -7496,7 +7445,6 @@
       <c r="J65" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="K65" s="6" t="n"/>
       <c r="L65" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -7603,7 +7551,6 @@
       <c r="J66" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="K66" s="6" t="n"/>
       <c r="L66" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -7934,7 +7881,6 @@
       <c r="J69" s="6" t="n">
         <v>69</v>
       </c>
-      <c r="K69" s="6" t="n"/>
       <c r="L69" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -8041,7 +7987,6 @@
       <c r="J70" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="K70" s="6" t="n"/>
       <c r="L70" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -8148,7 +8093,6 @@
       <c r="J71" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="K71" s="6" t="n"/>
       <c r="L71" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -8255,7 +8199,6 @@
       <c r="J72" s="6" t="n">
         <v>74</v>
       </c>
-      <c r="K72" s="6" t="n"/>
       <c r="L72" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -8362,7 +8305,6 @@
       <c r="J73" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="K73" s="6" t="n"/>
       <c r="L73" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -8469,7 +8411,6 @@
       <c r="J74" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="K74" s="6" t="n"/>
       <c r="L74" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -8576,7 +8517,6 @@
       <c r="J75" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="K75" s="6" t="n"/>
       <c r="L75" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -8794,7 +8734,6 @@
       <c r="J77" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="K77" s="6" t="n"/>
       <c r="L77" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -8901,7 +8840,6 @@
       <c r="J78" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="K78" s="6" t="n"/>
       <c r="L78" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -9119,7 +9057,6 @@
       <c r="J80" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="K80" s="6" t="n"/>
       <c r="L80" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -9226,7 +9163,6 @@
       <c r="J81" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="K81" s="6" t="n"/>
       <c r="L81" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -9777,7 +9713,6 @@
       <c r="J86" s="6" t="n">
         <v>67</v>
       </c>
-      <c r="K86" s="6" t="n"/>
       <c r="L86" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -9884,7 +9819,6 @@
       <c r="J87" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="K87" s="6" t="n"/>
       <c r="L87" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -9991,7 +9925,6 @@
       <c r="J88" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="K88" s="6" t="n"/>
       <c r="L88" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -10542,7 +10475,6 @@
       <c r="J93" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="K93" s="6" t="n"/>
       <c r="L93" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -10649,7 +10581,6 @@
       <c r="J94" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="K94" s="6" t="n"/>
       <c r="L94" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -10867,7 +10798,6 @@
       <c r="J96" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="K96" s="6" t="n"/>
       <c r="L96" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -10974,7 +10904,6 @@
       <c r="J97" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="K97" s="6" t="n"/>
       <c r="L97" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -11081,7 +11010,6 @@
       <c r="J98" s="6" t="n">
         <v>71</v>
       </c>
-      <c r="K98" s="6" t="n"/>
       <c r="L98" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -11129,7 +11057,6 @@
           <t xml:space="preserve">拜瑞妥 </t>
         </is>
       </c>
-      <c r="Y98" s="6" t="n"/>
       <c r="Z98" s="6" t="inlineStr">
         <is>
           <t>8.9.1</t>
@@ -11157,7 +11084,6 @@
           <t>黄美英</t>
         </is>
       </c>
-      <c r="B99" s="6" t="n"/>
       <c r="C99" s="6" t="inlineStr">
         <is>
           <t>女</t>
@@ -11186,7 +11112,6 @@
       <c r="J99" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="K99" s="6" t="n"/>
       <c r="L99" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -11234,7 +11159,6 @@
           <t>拜瑞妥</t>
         </is>
       </c>
-      <c r="Y99" s="6" t="n"/>
       <c r="Z99" s="6" t="inlineStr">
         <is>
           <t>8.2.1</t>
@@ -11406,7 +11330,6 @@
       <c r="J101" s="6" t="n">
         <v>78</v>
       </c>
-      <c r="K101" s="6" t="n"/>
       <c r="L101" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -11457,7 +11380,6 @@
       <c r="Y101" s="6" t="n">
         <v>182591163317</v>
       </c>
-      <c r="Z101" s="6" t="n"/>
       <c r="AE101" s="6" t="n">
         <v>7.37266935825777</v>
       </c>
@@ -11511,7 +11433,6 @@
       <c r="J102" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="K102" s="6" t="n"/>
       <c r="L102" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -11559,8 +11480,6 @@
           <t>拜瑞妥</t>
         </is>
       </c>
-      <c r="Y102" s="6" t="n"/>
-      <c r="Z102" s="6" t="n"/>
       <c r="AE102" s="6" t="n">
         <v>4.338264016299018</v>
       </c>
@@ -11614,7 +11533,6 @@
       <c r="J103" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="K103" s="6" t="n"/>
       <c r="L103" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -11665,7 +11583,6 @@
       <c r="Y103" s="6" t="n">
         <v>13559190228</v>
       </c>
-      <c r="Z103" s="6" t="n"/>
       <c r="AE103" s="6" t="n">
         <v>2.067142635165709</v>
       </c>
@@ -11719,7 +11636,6 @@
       <c r="J104" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="K104" s="6" t="n"/>
       <c r="L104" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -11828,7 +11744,6 @@
       <c r="J105" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="K105" s="6" t="n"/>
       <c r="L105" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -11937,7 +11852,6 @@
       <c r="J106" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="K106" s="6" t="n"/>
       <c r="L106" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -12046,7 +11960,6 @@
       <c r="J107" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="K107" s="6" t="n"/>
       <c r="L107" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -12381,7 +12294,6 @@
       <c r="J110" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="K110" s="6" t="n"/>
       <c r="L110" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -12490,7 +12402,6 @@
       <c r="J111" s="6" t="n">
         <v>78</v>
       </c>
-      <c r="K111" s="6" t="n"/>
       <c r="L111" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -12599,7 +12510,6 @@
       <c r="J112" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="K112" s="6" t="n"/>
       <c r="L112" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -12708,7 +12618,6 @@
       <c r="J113" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="K113" s="6" t="n"/>
       <c r="L113" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -12817,7 +12726,6 @@
       <c r="J114" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="K114" s="6" t="n"/>
       <c r="L114" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -12928,7 +12836,6 @@
       <c r="J115" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="K115" s="6" t="n"/>
       <c r="L115" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -13037,7 +12944,6 @@
       <c r="J116" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="K116" s="6" t="n"/>
       <c r="L116" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -13146,7 +13052,6 @@
       <c r="J117" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="K117" s="6" t="n"/>
       <c r="L117" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -13255,7 +13160,6 @@
       <c r="J118" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="K118" s="6" t="n"/>
       <c r="L118" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -13364,7 +13268,6 @@
       <c r="J119" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="K119" s="6" t="n"/>
       <c r="L119" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -13471,7 +13374,6 @@
       <c r="J120" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="K120" s="6" t="n"/>
       <c r="L120" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -13578,7 +13480,6 @@
       <c r="J121" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="K121" s="6" t="n"/>
       <c r="L121" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -13685,7 +13586,6 @@
       <c r="J122" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="K122" s="6" t="n"/>
       <c r="L122" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -13792,7 +13692,6 @@
       <c r="J123" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="K123" s="6" t="n"/>
       <c r="L123" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -13899,7 +13798,6 @@
       <c r="J124" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="K124" s="6" t="n"/>
       <c r="L124" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -14006,7 +13904,6 @@
       <c r="J125" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="K125" s="6" t="n"/>
       <c r="L125" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -14113,7 +14010,6 @@
       <c r="J126" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="K126" s="6" t="n"/>
       <c r="L126" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -14220,7 +14116,6 @@
       <c r="J127" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="K127" s="6" t="n"/>
       <c r="L127" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -14327,7 +14222,6 @@
       <c r="J128" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="K128" s="6" t="n"/>
       <c r="L128" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -14434,7 +14328,6 @@
       <c r="J129" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="K129" s="6" t="n"/>
       <c r="L129" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -14541,7 +14434,6 @@
       <c r="J130" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="K130" s="6" t="n"/>
       <c r="L130" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -14648,7 +14540,6 @@
       <c r="J131" s="6" t="n">
         <v>81</v>
       </c>
-      <c r="K131" s="6" t="n"/>
       <c r="L131" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -14755,7 +14646,6 @@
       <c r="J132" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="K132" s="6" t="n"/>
       <c r="L132" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -14862,7 +14752,6 @@
       <c r="J133" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="K133" s="6" t="n"/>
       <c r="L133" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -15080,7 +14969,6 @@
       <c r="J135" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="K135" s="6" t="n"/>
       <c r="L135" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -15187,7 +15075,6 @@
       <c r="J136" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="K136" s="6" t="n"/>
       <c r="L136" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -15294,7 +15181,6 @@
       <c r="J137" s="6" t="n">
         <v>76</v>
       </c>
-      <c r="K137" s="6" t="n"/>
       <c r="L137" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -15401,7 +15287,6 @@
       <c r="J138" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="K138" s="6" t="n"/>
       <c r="L138" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -15952,7 +15837,6 @@
       <c r="J143" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="K143" s="6" t="n"/>
       <c r="L143" s="6" t="inlineStr">
         <is>
           <t>无</t>
@@ -16059,7 +15943,6 @@
       <c r="J144" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="K144" s="6" t="n"/>
       <c r="L144" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -16388,7 +16271,6 @@
       <c r="J147" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="K147" s="6" t="n"/>
       <c r="L147" s="6" t="inlineStr">
         <is>
           <t>有</t>
@@ -16672,6 +16554,37 @@
         <v>0</v>
       </c>
       <c r="AI149" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="13.8" r="150" s="7">
+      <c r="D150" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="E150" s="6" t="n">
+        <v>211.1</v>
+      </c>
+      <c r="F150" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G150" s="6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="AE150" t="n">
+        <v>6.337195244699574</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>0.335033259423505</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>3.533285658733964</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>2.468876326542105</v>
+      </c>
+      <c r="AI150" t="n">
         <v>0</v>
       </c>
     </row>
